--- a/data/N2O2014.xlsx
+++ b/data/N2O2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>No N</t>
   </si>
@@ -382,11 +382,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -791,12 +794,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>AVERAGE(Plan1!C2:C5)</f>
+        <v>2.4495569165765789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(Plan1!C6:C9)</f>
+        <v>3.3594040892163957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(Plan1!C10:C13)</f>
+        <v>2.7207485146923482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(Plan1!C14:C17)</f>
+        <v>2.5423460143605547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(Plan1!C18:C21)</f>
+        <v>3.3269719942830043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(Plan1!C22:C25)</f>
+        <v>2.5996803433122051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(Plan1!C26:C29)</f>
+        <v>2.5474142284194907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(Plan1!C30:C33)</f>
+        <v>2.5171500005619958</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
